--- a/Iteration 1/time_log.xlsx
+++ b/Iteration 1/time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\Assignment 1\Iteration 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5EBDA-B9DF-4320-B59D-09BCF32032CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B61154-E6AC-4F59-81AC-6FBFF76B9A02}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="156" windowWidth="20112" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>PSP Time Recording Log</t>
   </si>
@@ -358,6 +358,24 @@
   </si>
   <si>
     <t>28.7.2018</t>
+  </si>
+  <si>
+    <t>Read instruction and gather required form</t>
+  </si>
+  <si>
+    <t>Estimate timetable</t>
+  </si>
+  <si>
+    <t>31.7.2018</t>
+  </si>
+  <si>
+    <t>Analyse requirement</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>Draw class diagram</t>
   </si>
 </sst>
 </file>
@@ -576,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -628,6 +646,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,6 +1064,22 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
+      <c r="D7" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G7" s="19">
+        <f>$F7-$D7</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -1053,6 +1088,22 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
+      <c r="D8" s="19">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" ref="G8:G24" si="0">$F8-$D8</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -1061,69 +1112,165 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
+      <c r="D9" s="19">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
